--- a/conf/meta/Item.xlsx
+++ b/conf/meta/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\怪物\表格资源\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\怪物\表格资源\conf\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,44 +24,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
-  <si>
-    <t>种类</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>标识名</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>数组切割</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>索引</t>
-  </si>
-  <si>
-    <t>标记</t>
-  </si>
-  <si>
-    <t>表头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>表类型</t>
+  </si>
+  <si>
+    <t>表文件名</t>
+  </si>
+  <si>
+    <t>#B 类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
+    <t>#E 类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型表</t>
+  </si>
+  <si>
+    <t>数据表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -69,79 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_name</t>
+    <t>../type/Item.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_stack_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_stack_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_icon_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_icon_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_attr_effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem_attr_effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># B:宝石道具独有属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># E:宝石道具独有属性</t>
+    <t>../道具/道具表.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,13 +81,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +91,19 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF1F2328"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,14 +116,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,15 +126,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -243,17 +158,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -546,230 +461,45 @@
     <col min="1" max="16384" width="20.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/conf/meta/Item.xlsx
+++ b/conf/meta/Item.xlsx
@@ -54,11 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../type/Item.xlsx</t>
+    <t>./道具/道具表.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../道具/道具表.xlsx</t>
+    <t>./type/Item.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/conf/meta/Item.xlsx
+++ b/conf/meta/Item.xlsx
@@ -50,15 +50,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ItemData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>./道具/道具表.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>./type/Item.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -495,10 +495,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
